--- a/SoftwareDesignUsingNLP/data/Domain.xlsx
+++ b/SoftwareDesignUsingNLP/data/Domain.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swaroopmishra/Desktop/pythonscript/NLP_Project/nWave_softwareDesign/notebook/final/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14955" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="Banking-Domain" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -59,9 +55,6 @@
     <t>Restock cash</t>
   </si>
   <si>
-    <t xml:space="preserve">Function will be used by banker to fill the cash at ATM with required  bill types and necessary amount of cash. </t>
-  </si>
-  <si>
     <t>Credit_check</t>
   </si>
   <si>
@@ -255,6 +248,9 @@
   </si>
   <si>
     <t>Fn25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function will be used by banker to restock the cash at ATM with required  bill types and necessary amount of cash. </t>
   </si>
 </sst>
 </file>
@@ -675,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,23 +681,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="176" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18.95" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -709,29 +705,29 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -742,7 +738,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -753,7 +749,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -762,224 +758,224 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="56.1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.95" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="C22" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27.95" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
